--- a/Arbejdstid.xlsx
+++ b/Arbejdstid.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t xml:space="preserve">Dato</t>
   </si>
@@ -32,6 +32,12 @@
   </si>
   <si>
     <t xml:space="preserve">01.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01/10-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02.45</t>
   </si>
 </sst>
 </file>
@@ -48,6 +54,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -68,6 +75,7 @@
       <sz val="14"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -131,12 +139,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -146,10 +154,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:C5"/>
+  <dimension ref="B1:C6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -179,6 +187,14 @@
         <v>3</v>
       </c>
     </row>
+    <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
